--- a/output/fwd pde recon.xlsx
+++ b/output/fwd pde recon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van92\OneDrive\Desktop\Local-Vol-Calibration\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - Murex\Desktop\Local Vol Calibration\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB11DA8E-F862-4744-B9A5-6FF8E953C166}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{AB11DA8E-F862-4744-B9A5-6FF8E953C166}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{4BDF5896-16D5-4021-877F-D81814143770}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FFF4146D-DB69-429F-979B-ABD16637533D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="23280" windowHeight="12600" xr2:uid="{FFF4146D-DB69-429F-979B-ABD16637533D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>x_values</t>
   </si>
@@ -59,21 +59,57 @@
   <si>
     <t>loc_vol</t>
   </si>
+  <si>
+    <t>conv_coeff</t>
+  </si>
+  <si>
+    <t>zero_coef</t>
+  </si>
+  <si>
+    <t>source_coef</t>
+  </si>
+  <si>
+    <t>old_result=pde.init_cond()</t>
+  </si>
+  <si>
+    <t>dt_diffu</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>dtdxp2_conv</t>
+  </si>
+  <si>
+    <t>alpha</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>gamma</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -96,9 +132,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -171,7 +211,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$7</c:f>
+              <c:f>Sheet1!$D$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -206,7 +246,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$B$8:$B$28</c:f>
+              <c:f>Sheet1!$C$8:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -278,7 +318,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$28</c:f>
+              <c:f>Sheet1!$D$8:$D$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -1436,18 +1476,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{264B105F-04AB-44CB-A076-A3CAD5E54EB5}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="12" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -1455,7 +1501,7 @@
         <v>0.77041525001264399</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -1463,7 +1509,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1517,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1479,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -1487,375 +1533,919 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
         <v>-1</v>
       </c>
-      <c r="B8">
-        <f>EXP(A8)*$B$1</f>
+      <c r="C8">
+        <f>EXP(B8)*$B$1</f>
         <v>0.28341993164460849</v>
       </c>
-      <c r="C8">
-        <f>MAX(0.6-B8,0)</f>
+      <c r="D8">
+        <f>MAX(0.6-C8,0)</f>
         <v>0.31658006835539149</v>
       </c>
-      <c r="E8" s="1">
-        <f>0.5*$B$5^2*A8^2</f>
+      <c r="F8" s="1">
+        <f>0.5*$B$5^2*B8^2</f>
         <v>3.125E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <f>-F8</f>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f>D8</f>
+        <v>0.31658006835539149</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
         <v>-0.9</v>
       </c>
-      <c r="B9">
-        <f t="shared" ref="B9:B28" si="0">EXP(A9)*$B$1</f>
+      <c r="C9">
+        <f t="shared" ref="C9:C28" si="0">EXP(B9)*$B$1</f>
         <v>0.31322746605660928</v>
       </c>
-      <c r="C9">
-        <f t="shared" ref="C9:C28" si="1">MAX(0.6-B9,0)</f>
+      <c r="D9">
+        <f t="shared" ref="D9:D28" si="1">MAX(0.6-C9,0)</f>
         <v>0.2867725339433907</v>
       </c>
-      <c r="E9" s="1">
-        <f t="shared" ref="E9:E28" si="2">0.5*$B$5^2*A9^2</f>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F28" si="2">0.5*$B$5^2*B9^2</f>
         <v>2.5312500000000002E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G28" si="3">-F9</f>
+        <v>-2.5312500000000002E-2</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:J28" si="4">D9</f>
+        <v>0.2867725339433907</v>
+      </c>
+      <c r="K9">
+        <f>$B$2*F9</f>
+        <v>1.2656250000000003E-3</v>
+      </c>
+      <c r="L9">
+        <f>$B$2*$B$3*0.5*G9</f>
+        <v>-6.328125000000001E-5</v>
+      </c>
+      <c r="M9">
+        <f>0.5*(K9-L9)/(B5*2)</f>
+        <v>1.3289062500000002E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
         <v>-0.8</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <f t="shared" si="0"/>
         <v>0.34616988622829159</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <f t="shared" si="1"/>
         <v>0.25383011377170839</v>
       </c>
-      <c r="E10" s="1">
+      <c r="F10" s="1">
         <f t="shared" si="2"/>
         <v>2.0000000000000004E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G10" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.25383011377170839</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ref="K10:K27" si="5">$B$2*F10</f>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ref="L10:L27" si="6">$B$2*$B$3*0.5*G10</f>
+        <v>-5.0000000000000023E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
         <v>-0.7</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <f t="shared" si="0"/>
         <v>0.38257689097306352</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <f t="shared" si="1"/>
         <v>0.21742310902693646</v>
       </c>
-      <c r="E11" s="1">
+      <c r="F11" s="1">
         <f t="shared" si="2"/>
         <v>1.5312499999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.5312499999999998E-2</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.21742310902693646</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>7.6562499999999992E-4</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="6"/>
+        <v>-3.8281250000000006E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
         <v>-0.6</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <f t="shared" si="0"/>
         <v>0.42281285383122752</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <f t="shared" si="1"/>
         <v>0.17718714616877246</v>
       </c>
-      <c r="E12" s="1">
+      <c r="F12" s="1">
         <f t="shared" si="2"/>
         <v>1.125E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.125E-2</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.17718714616877246</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="5"/>
+        <v>5.6249999999999996E-4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="6"/>
+        <v>-2.8125000000000006E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
         <v>-0.5</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <f t="shared" si="0"/>
         <v>0.46728046984284238</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <f t="shared" si="1"/>
         <v>0.13271953015715759</v>
       </c>
-      <c r="E13" s="1">
+      <c r="F13" s="1">
         <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.13271953015715759</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="5"/>
+        <v>3.9062500000000002E-4</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="6"/>
+        <v>-1.9531250000000004E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>6</v>
+      </c>
+      <c r="B14">
         <v>-0.4</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <f t="shared" si="0"/>
         <v>0.51642478585503415</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <f t="shared" si="1"/>
         <v>8.3575214144965826E-2</v>
       </c>
-      <c r="E14" s="1">
+      <c r="F14" s="1">
         <f t="shared" si="2"/>
         <v>5.000000000000001E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>8.3575214144965826E-2</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000006E-4</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="6"/>
+        <v>-1.2500000000000006E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
+        <v>7</v>
+      </c>
+      <c r="B15">
         <v>-0.3</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <f t="shared" si="0"/>
         <v>0.5707376547004277</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <f t="shared" si="1"/>
         <v>2.9262345299572279E-2</v>
       </c>
-      <c r="E15" s="1">
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
         <v>2.8124999999999999E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G15" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.8124999999999999E-3</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>2.9262345299572279E-2</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1.4062499999999999E-4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="6"/>
+        <v>-7.0312500000000015E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>8</v>
+      </c>
+      <c r="B16">
         <v>-0.2</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <f t="shared" si="0"/>
         <v>0.63076265782561369</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E16" s="1">
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
         <v>1.2500000000000002E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G16" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2500000000000002E-3</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>6.2500000000000015E-5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="6"/>
+        <v>-3.1250000000000014E-6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
+        <v>9</v>
+      </c>
+      <c r="B17">
         <v>-0.1</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <f t="shared" si="0"/>
         <v>0.69710054563696899</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="1">
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
         <v>3.1250000000000006E-4</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G17" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.1250000000000006E-4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>1.5625000000000004E-5</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="6"/>
+        <v>-7.8125000000000036E-7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
         <f t="shared" si="0"/>
         <v>0.77041525001264399</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E18" s="1">
+      <c r="F18" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
+        <v>11</v>
+      </c>
+      <c r="B19">
         <v>0.1</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <f t="shared" si="0"/>
         <v>0.85144052915595347</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E19" s="1">
+      <c r="F19" s="1">
         <f t="shared" si="2"/>
         <v>3.1250000000000006E-4</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.1250000000000006E-4</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>1.5625000000000004E-5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="6"/>
+        <v>-7.8125000000000036E-7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>12</v>
+      </c>
+      <c r="B20">
         <v>0.2</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <f t="shared" si="0"/>
         <v>0.94098731129410018</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E20" s="1">
+      <c r="F20" s="1">
         <f t="shared" si="2"/>
         <v>1.2500000000000002E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.2500000000000002E-3</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>6.2500000000000015E-5</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="6"/>
+        <v>-3.1250000000000014E-6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>13</v>
+      </c>
+      <c r="B21">
         <v>0.3</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <f t="shared" si="0"/>
         <v>1.039951810720436</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E21" s="1">
+      <c r="F21" s="1">
         <f t="shared" si="2"/>
         <v>2.8124999999999999E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.8124999999999999E-3</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>1.4062499999999999E-4</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="6"/>
+        <v>-7.0312500000000015E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
+        <v>14</v>
+      </c>
+      <c r="B22">
         <v>0.4</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <f t="shared" si="0"/>
         <v>1.1493244974083363</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E22" s="1">
+      <c r="F22" s="1">
         <f t="shared" si="2"/>
         <v>5.000000000000001E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="1">
+        <f t="shared" si="3"/>
+        <v>-5.000000000000001E-3</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>2.5000000000000006E-4</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="6"/>
+        <v>-1.2500000000000006E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>15</v>
+      </c>
+      <c r="B23">
         <v>0.5</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <f t="shared" si="0"/>
         <v>1.2702000099676034</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E23" s="1">
+      <c r="F23" s="1">
         <f t="shared" si="2"/>
         <v>7.8125E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="1">
+        <f t="shared" si="3"/>
+        <v>-7.8125E-3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>3.9062500000000002E-4</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="6"/>
+        <v>-1.9531250000000004E-5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
         <v>0.6</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <f t="shared" si="0"/>
         <v>1.4037881111555928</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E24" s="1">
+      <c r="F24" s="1">
         <f t="shared" si="2"/>
         <v>1.125E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G24" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.125E-2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>5.6249999999999996E-4</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="6"/>
+        <v>-2.8125000000000006E-5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
+        <v>17</v>
+      </c>
+      <c r="B25">
         <v>0.7</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <f t="shared" si="0"/>
         <v>1.5514257955895061</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E25" s="1">
+      <c r="F25" s="1">
         <f t="shared" si="2"/>
         <v>1.5312499999999998E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="1">
+        <f t="shared" si="3"/>
+        <v>-1.5312499999999998E-2</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>7.6562499999999992E-4</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="6"/>
+        <v>-3.8281250000000006E-5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
+        <v>18</v>
+      </c>
+      <c r="B26">
         <v>0.8</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <f t="shared" si="0"/>
         <v>1.7145906708378964</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E26" s="1">
+      <c r="F26" s="1">
         <f t="shared" si="2"/>
         <v>2.0000000000000004E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G26" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.0000000000000004E-2</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000002E-3</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="6"/>
+        <v>-5.0000000000000023E-5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>19</v>
+      </c>
+      <c r="B27">
         <v>0.9</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <f t="shared" si="0"/>
         <v>1.8949157458138586</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E27" s="1">
+      <c r="F27" s="1">
         <f t="shared" si="2"/>
         <v>2.5312500000000002E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G27" s="1">
+        <f t="shared" si="3"/>
+        <v>-2.5312500000000002E-2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>1.2656250000000003E-3</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="6"/>
+        <v>-6.328125000000001E-5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
+        <v>20</v>
+      </c>
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <f t="shared" si="0"/>
         <v>2.0942057744771021</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E28" s="1">
+      <c r="F28" s="1">
         <f t="shared" si="2"/>
         <v>3.125E-2</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="3"/>
+        <v>-3.125E-2</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
